--- a/Simulator/validation/Single Flow Validation/SeqNumPlots.xlsx
+++ b/Simulator/validation/Single Flow Validation/SeqNumPlots.xlsx
@@ -163,40 +163,40 @@
               <c:numCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.16000300645828247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.4399995803833</c:v>
+                  <c:v>1.4400110244750977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.4399995803833</c:v>
+                  <c:v>2.4400110244750977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.4399995803833</c:v>
+                  <c:v>3.4400110244750977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.4399995803833</c:v>
+                  <c:v>4.440011024475098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.4399995803833</c:v>
+                  <c:v>5.440011024475098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.600000381469727</c:v>
+                  <c:v>5.6000189781188965</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.600000381469727</c:v>
+                  <c:v>6.6000189781188965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.600000381469727</c:v>
+                  <c:v>7.6000189781188965</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.600000381469727</c:v>
+                  <c:v>8.600019454956055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.600000381469727</c:v>
+                  <c:v>9.600019454956055</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.7599983215332</c:v>
+                  <c:v>12.800026893615723</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -263,37 +263,37 @@
               <c:numCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>10.4399995803833</c:v>
+                  <c:v>0.4400100111961365</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.600000381469727</c:v>
+                  <c:v>4.60001802444458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.600000381469727</c:v>
+                  <c:v>5.60001802444458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.600000381469727</c:v>
+                  <c:v>6.60001802444458</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.600000381469727</c:v>
+                  <c:v>7.60001802444458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.600000381469727</c:v>
+                  <c:v>8.600017547607422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.7599983215332</c:v>
+                  <c:v>8.760025978088379</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.7599983215332</c:v>
+                  <c:v>9.760025978088379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.7599983215332</c:v>
+                  <c:v>10.760025978088379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.7599983215332</c:v>
+                  <c:v>11.760025978088379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.7599983215332</c:v>
+                  <c:v>12.760025978088379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,13 +500,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="1">
-        <v>0.0</v>
+        <v>0.16000300645828247</v>
       </c>
       <c r="B3" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>10.4399995803833</v>
+        <v>0.4400100111961365</v>
       </c>
       <c r="D3" t="n" s="2">
         <v>0.0</v>
@@ -514,13 +514,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>10.4399995803833</v>
+        <v>1.4400110244750977</v>
       </c>
       <c r="B4" t="n" s="2">
         <v>1.0</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>22.600000381469727</v>
+        <v>4.60001802444458</v>
       </c>
       <c r="D4" t="n" s="2">
         <v>1.0</v>
@@ -528,13 +528,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>11.4399995803833</v>
+        <v>2.4400110244750977</v>
       </c>
       <c r="B5" t="n" s="2">
         <v>2.0</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>23.600000381469727</v>
+        <v>5.60001802444458</v>
       </c>
       <c r="D5" t="n" s="2">
         <v>2.0</v>
@@ -542,13 +542,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>12.4399995803833</v>
+        <v>3.4400110244750977</v>
       </c>
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>24.600000381469727</v>
+        <v>6.60001802444458</v>
       </c>
       <c r="D6" t="n" s="2">
         <v>3.0</v>
@@ -556,13 +556,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>13.4399995803833</v>
+        <v>4.440011024475098</v>
       </c>
       <c r="B7" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>25.600000381469727</v>
+        <v>7.60001802444458</v>
       </c>
       <c r="D7" t="n" s="2">
         <v>4.0</v>
@@ -570,13 +570,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>14.4399995803833</v>
+        <v>5.440011024475098</v>
       </c>
       <c r="B8" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>26.600000381469727</v>
+        <v>8.600017547607422</v>
       </c>
       <c r="D8" t="n" s="2">
         <v>5.0</v>
@@ -584,13 +584,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>22.600000381469727</v>
+        <v>5.6000189781188965</v>
       </c>
       <c r="B9" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>34.7599983215332</v>
+        <v>8.760025978088379</v>
       </c>
       <c r="D9" t="n" s="2">
         <v>6.0</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>23.600000381469727</v>
+        <v>6.6000189781188965</v>
       </c>
       <c r="B10" t="n" s="2">
         <v>7.0</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>35.7599983215332</v>
+        <v>9.760025978088379</v>
       </c>
       <c r="D10" t="n" s="2">
         <v>7.0</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>24.600000381469727</v>
+        <v>7.6000189781188965</v>
       </c>
       <c r="B11" t="n" s="2">
         <v>8.0</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>36.7599983215332</v>
+        <v>10.760025978088379</v>
       </c>
       <c r="D11" t="n" s="2">
         <v>8.0</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>25.600000381469727</v>
+        <v>8.600019454956055</v>
       </c>
       <c r="B12" t="n" s="2">
         <v>9.0</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>37.7599983215332</v>
+        <v>11.760025978088379</v>
       </c>
       <c r="D12" t="n" s="2">
         <v>9.0</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>26.600000381469727</v>
+        <v>9.600019454956055</v>
       </c>
       <c r="B13" t="n" s="2">
         <v>10.0</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>38.7599983215332</v>
+        <v>12.760025978088379</v>
       </c>
       <c r="D13" t="n" s="2">
         <v>10.0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>38.7599983215332</v>
+        <v>12.800026893615723</v>
       </c>
       <c r="B14" t="n" s="2">
         <v>11.0</v>

--- a/Simulator/validation/Single Flow Validation/SeqNumPlots.xlsx
+++ b/Simulator/validation/Single Flow Validation/SeqNumPlots.xlsx
@@ -159,53 +159,173 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Flow_0!$A$3:$A$14</c:f>
+              <c:f>Flow_0!$A$3:$A$54</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.16000300645828247</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4400110244750977</c:v>
+                  <c:v>15.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4400110244750977</c:v>
+                  <c:v>16.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4400110244750977</c:v>
+                  <c:v>17.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.440011024475098</c:v>
+                  <c:v>18.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.440011024475098</c:v>
+                  <c:v>19.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6000189781188965</c:v>
+                  <c:v>20.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6000189781188965</c:v>
+                  <c:v>21.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6000189781188965</c:v>
+                  <c:v>22.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.600019454956055</c:v>
+                  <c:v>23.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.600019454956055</c:v>
+                  <c:v>24.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.800026893615723</c:v>
+                  <c:v>25.479999542236328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.479999542236328</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.639999389648438</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.639999389648438</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.639999389648438</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.639999389648438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.639999389648438</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>38.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>53.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>55.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>60.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>61.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>64.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>77.27999877929688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Flow_0!$B$3:$B$14</c:f>
+              <c:f>Flow_0!$B$3:$B$54</c:f>
               <c:numCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -241,6 +361,126 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,50 +499,170 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Flow_0!$C$3:$C$13</c:f>
+              <c:f>Flow_0!$C$3:$C$53</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.4400100111961365</c:v>
+                  <c:v>10.479999542236328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.60001802444458</c:v>
+                  <c:v>27.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.60001802444458</c:v>
+                  <c:v>28.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.60001802444458</c:v>
+                  <c:v>29.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.60001802444458</c:v>
+                  <c:v>30.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.600017547607422</c:v>
+                  <c:v>31.639999389648438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.760025978088379</c:v>
+                  <c:v>32.63999938964844</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.760025978088379</c:v>
+                  <c:v>33.63999938964844</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.760025978088379</c:v>
+                  <c:v>34.63999938964844</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.760025978088379</c:v>
+                  <c:v>35.63999938964844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.760025978088379</c:v>
+                  <c:v>36.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.63999938964844</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.79999923706055</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>58.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62.959999084472656</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>64.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>69.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>70.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>71.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>73.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>74.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>75.12000274658203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>76.27999877929688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>77.27999877929688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Flow_0!$D$3:$D$13</c:f>
+              <c:f>Flow_0!$D$3:$D$53</c:f>
               <c:numCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -335,6 +695,126 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -500,13 +980,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n" s="1">
-        <v>0.16000300645828247</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n" s="2">
         <v>0.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>0.4400100111961365</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="D3" t="n" s="2">
         <v>0.0</v>
@@ -514,13 +994,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>1.4400110244750977</v>
+        <v>15.479999542236328</v>
       </c>
       <c r="B4" t="n" s="2">
         <v>1.0</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>4.60001802444458</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D4" t="n" s="2">
         <v>1.0</v>
@@ -528,13 +1008,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>2.4400110244750977</v>
+        <v>16.479999542236328</v>
       </c>
       <c r="B5" t="n" s="2">
         <v>2.0</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>5.60001802444458</v>
+        <v>28.639999389648438</v>
       </c>
       <c r="D5" t="n" s="2">
         <v>2.0</v>
@@ -542,13 +1022,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>3.4400110244750977</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="B6" t="n" s="2">
         <v>3.0</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>6.60001802444458</v>
+        <v>29.639999389648438</v>
       </c>
       <c r="D6" t="n" s="2">
         <v>3.0</v>
@@ -556,13 +1036,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>4.440011024475098</v>
+        <v>18.479999542236328</v>
       </c>
       <c r="B7" t="n" s="2">
         <v>4.0</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>7.60001802444458</v>
+        <v>30.639999389648438</v>
       </c>
       <c r="D7" t="n" s="2">
         <v>4.0</v>
@@ -570,13 +1050,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>5.440011024475098</v>
+        <v>19.479999542236328</v>
       </c>
       <c r="B8" t="n" s="2">
         <v>5.0</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>8.600017547607422</v>
+        <v>31.639999389648438</v>
       </c>
       <c r="D8" t="n" s="2">
         <v>5.0</v>
@@ -584,13 +1064,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>5.6000189781188965</v>
+        <v>20.479999542236328</v>
       </c>
       <c r="B9" t="n" s="2">
         <v>6.0</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>8.760025978088379</v>
+        <v>32.63999938964844</v>
       </c>
       <c r="D9" t="n" s="2">
         <v>6.0</v>
@@ -598,13 +1078,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>6.6000189781188965</v>
+        <v>21.479999542236328</v>
       </c>
       <c r="B10" t="n" s="2">
         <v>7.0</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>9.760025978088379</v>
+        <v>33.63999938964844</v>
       </c>
       <c r="D10" t="n" s="2">
         <v>7.0</v>
@@ -612,13 +1092,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="1">
-        <v>7.6000189781188965</v>
+        <v>22.479999542236328</v>
       </c>
       <c r="B11" t="n" s="2">
         <v>8.0</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>10.760025978088379</v>
+        <v>34.63999938964844</v>
       </c>
       <c r="D11" t="n" s="2">
         <v>8.0</v>
@@ -626,13 +1106,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>8.600019454956055</v>
+        <v>23.479999542236328</v>
       </c>
       <c r="B12" t="n" s="2">
         <v>9.0</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>11.760025978088379</v>
+        <v>35.63999938964844</v>
       </c>
       <c r="D12" t="n" s="2">
         <v>9.0</v>
@@ -640,13 +1120,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>9.600019454956055</v>
+        <v>24.479999542236328</v>
       </c>
       <c r="B13" t="n" s="2">
         <v>10.0</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>12.760025978088379</v>
+        <v>36.63999938964844</v>
       </c>
       <c r="D13" t="n" s="2">
         <v>10.0</v>
@@ -654,10 +1134,570 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>12.800026893615723</v>
+        <v>25.479999542236328</v>
       </c>
       <c r="B14" t="n" s="2">
         <v>11.0</v>
+      </c>
+      <c r="C14" t="n" s="1">
+        <v>37.63999938964844</v>
+      </c>
+      <c r="D14" t="n" s="2">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="1">
+        <v>26.479999542236328</v>
+      </c>
+      <c r="B15" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="C15" t="n" s="1">
+        <v>38.63999938964844</v>
+      </c>
+      <c r="D15" t="n" s="2">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="1">
+        <v>27.639999389648438</v>
+      </c>
+      <c r="B16" t="n" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="C16" t="n" s="1">
+        <v>39.79999923706055</v>
+      </c>
+      <c r="D16" t="n" s="2">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="1">
+        <v>28.639999389648438</v>
+      </c>
+      <c r="B17" t="n" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="C17" t="n" s="1">
+        <v>40.79999923706055</v>
+      </c>
+      <c r="D17" t="n" s="2">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="1">
+        <v>29.639999389648438</v>
+      </c>
+      <c r="B18" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="C18" t="n" s="1">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="D18" t="n" s="2">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n" s="1">
+        <v>30.639999389648438</v>
+      </c>
+      <c r="B19" t="n" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="C19" t="n" s="1">
+        <v>42.79999923706055</v>
+      </c>
+      <c r="D19" t="n" s="2">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="1">
+        <v>31.639999389648438</v>
+      </c>
+      <c r="B20" t="n" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="C20" t="n" s="1">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="D20" t="n" s="2">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n" s="1">
+        <v>32.63999938964844</v>
+      </c>
+      <c r="B21" t="n" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="C21" t="n" s="1">
+        <v>44.79999923706055</v>
+      </c>
+      <c r="D21" t="n" s="2">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="1">
+        <v>33.63999938964844</v>
+      </c>
+      <c r="B22" t="n" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="C22" t="n" s="1">
+        <v>45.79999923706055</v>
+      </c>
+      <c r="D22" t="n" s="2">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n" s="1">
+        <v>34.63999938964844</v>
+      </c>
+      <c r="B23" t="n" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="C23" t="n" s="1">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="D23" t="n" s="2">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="1">
+        <v>35.63999938964844</v>
+      </c>
+      <c r="B24" t="n" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="C24" t="n" s="1">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="D24" t="n" s="2">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="1">
+        <v>36.63999938964844</v>
+      </c>
+      <c r="B25" t="n" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="C25" t="n" s="1">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="D25" t="n" s="2">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n" s="1">
+        <v>37.63999938964844</v>
+      </c>
+      <c r="B26" t="n" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="C26" t="n" s="1">
+        <v>49.79999923706055</v>
+      </c>
+      <c r="D26" t="n" s="2">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="1">
+        <v>38.63999938964844</v>
+      </c>
+      <c r="B27" t="n" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="C27" t="n" s="1">
+        <v>50.79999923706055</v>
+      </c>
+      <c r="D27" t="n" s="2">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n" s="1">
+        <v>39.79999923706055</v>
+      </c>
+      <c r="B28" t="n" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="C28" t="n" s="1">
+        <v>51.959999084472656</v>
+      </c>
+      <c r="D28" t="n" s="2">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n" s="1">
+        <v>40.79999923706055</v>
+      </c>
+      <c r="B29" t="n" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="C29" t="n" s="1">
+        <v>52.959999084472656</v>
+      </c>
+      <c r="D29" t="n" s="2">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n" s="1">
+        <v>41.79999923706055</v>
+      </c>
+      <c r="B30" t="n" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="C30" t="n" s="1">
+        <v>53.959999084472656</v>
+      </c>
+      <c r="D30" t="n" s="2">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="1">
+        <v>42.79999923706055</v>
+      </c>
+      <c r="B31" t="n" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="C31" t="n" s="1">
+        <v>54.959999084472656</v>
+      </c>
+      <c r="D31" t="n" s="2">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="1">
+        <v>43.79999923706055</v>
+      </c>
+      <c r="B32" t="n" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="C32" t="n" s="1">
+        <v>55.959999084472656</v>
+      </c>
+      <c r="D32" t="n" s="2">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="1">
+        <v>44.79999923706055</v>
+      </c>
+      <c r="B33" t="n" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="C33" t="n" s="1">
+        <v>56.959999084472656</v>
+      </c>
+      <c r="D33" t="n" s="2">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="1">
+        <v>45.79999923706055</v>
+      </c>
+      <c r="B34" t="n" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="C34" t="n" s="1">
+        <v>57.959999084472656</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>31.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="1">
+        <v>46.79999923706055</v>
+      </c>
+      <c r="B35" t="n" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="C35" t="n" s="1">
+        <v>58.959999084472656</v>
+      </c>
+      <c r="D35" t="n" s="2">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="1">
+        <v>47.79999923706055</v>
+      </c>
+      <c r="B36" t="n" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="C36" t="n" s="1">
+        <v>59.959999084472656</v>
+      </c>
+      <c r="D36" t="n" s="2">
+        <v>33.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="1">
+        <v>48.79999923706055</v>
+      </c>
+      <c r="B37" t="n" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="C37" t="n" s="1">
+        <v>60.959999084472656</v>
+      </c>
+      <c r="D37" t="n" s="2">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="1">
+        <v>49.79999923706055</v>
+      </c>
+      <c r="B38" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="C38" t="n" s="1">
+        <v>61.959999084472656</v>
+      </c>
+      <c r="D38" t="n" s="2">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="1">
+        <v>50.79999923706055</v>
+      </c>
+      <c r="B39" t="n" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="C39" t="n" s="1">
+        <v>62.959999084472656</v>
+      </c>
+      <c r="D39" t="n" s="2">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="1">
+        <v>51.959999084472656</v>
+      </c>
+      <c r="B40" t="n" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="C40" t="n" s="1">
+        <v>64.12000274658203</v>
+      </c>
+      <c r="D40" t="n" s="2">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="1">
+        <v>52.959999084472656</v>
+      </c>
+      <c r="B41" t="n" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="C41" t="n" s="1">
+        <v>65.12000274658203</v>
+      </c>
+      <c r="D41" t="n" s="2">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="1">
+        <v>53.959999084472656</v>
+      </c>
+      <c r="B42" t="n" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="C42" t="n" s="1">
+        <v>66.12000274658203</v>
+      </c>
+      <c r="D42" t="n" s="2">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="1">
+        <v>54.959999084472656</v>
+      </c>
+      <c r="B43" t="n" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="C43" t="n" s="1">
+        <v>67.12000274658203</v>
+      </c>
+      <c r="D43" t="n" s="2">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="1">
+        <v>55.959999084472656</v>
+      </c>
+      <c r="B44" t="n" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="C44" t="n" s="1">
+        <v>68.12000274658203</v>
+      </c>
+      <c r="D44" t="n" s="2">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="1">
+        <v>56.959999084472656</v>
+      </c>
+      <c r="B45" t="n" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="C45" t="n" s="1">
+        <v>69.12000274658203</v>
+      </c>
+      <c r="D45" t="n" s="2">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="1">
+        <v>57.959999084472656</v>
+      </c>
+      <c r="B46" t="n" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="C46" t="n" s="1">
+        <v>70.12000274658203</v>
+      </c>
+      <c r="D46" t="n" s="2">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="1">
+        <v>58.959999084472656</v>
+      </c>
+      <c r="B47" t="n" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="C47" t="n" s="1">
+        <v>71.12000274658203</v>
+      </c>
+      <c r="D47" t="n" s="2">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="1">
+        <v>59.959999084472656</v>
+      </c>
+      <c r="B48" t="n" s="2">
+        <v>45.0</v>
+      </c>
+      <c r="C48" t="n" s="1">
+        <v>72.12000274658203</v>
+      </c>
+      <c r="D48" t="n" s="2">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="1">
+        <v>60.959999084472656</v>
+      </c>
+      <c r="B49" t="n" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="C49" t="n" s="1">
+        <v>73.12000274658203</v>
+      </c>
+      <c r="D49" t="n" s="2">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="1">
+        <v>61.959999084472656</v>
+      </c>
+      <c r="B50" t="n" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="C50" t="n" s="1">
+        <v>74.12000274658203</v>
+      </c>
+      <c r="D50" t="n" s="2">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n" s="1">
+        <v>62.959999084472656</v>
+      </c>
+      <c r="B51" t="n" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="C51" t="n" s="1">
+        <v>75.12000274658203</v>
+      </c>
+      <c r="D51" t="n" s="2">
+        <v>48.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n" s="1">
+        <v>64.12000274658203</v>
+      </c>
+      <c r="B52" t="n" s="2">
+        <v>49.0</v>
+      </c>
+      <c r="C52" t="n" s="1">
+        <v>76.27999877929688</v>
+      </c>
+      <c r="D52" t="n" s="2">
+        <v>49.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n" s="1">
+        <v>65.12000274658203</v>
+      </c>
+      <c r="B53" t="n" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="C53" t="n" s="1">
+        <v>77.27999877929688</v>
+      </c>
+      <c r="D53" t="n" s="2">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="1">
+        <v>77.27999877929688</v>
+      </c>
+      <c r="B54" t="n" s="2">
+        <v>51.0</v>
       </c>
     </row>
   </sheetData>
